--- a/data_capture/excels/PRIO3_SA_dados.xlsx
+++ b/data_capture/excels/PRIO3_SA_dados.xlsx
@@ -961,7 +961,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3616"/>
+  <dimension ref="A1:H3618"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -94980,6 +94980,58 @@
         <v>0</v>
       </c>
       <c r="H3616">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3617" spans="1:8">
+      <c r="A3617" s="2">
+        <v>45796</v>
+      </c>
+      <c r="B3617">
+        <v>39.54999923706055</v>
+      </c>
+      <c r="C3617">
+        <v>39.63999938964844</v>
+      </c>
+      <c r="D3617">
+        <v>38.95000076293945</v>
+      </c>
+      <c r="E3617">
+        <v>39.38999938964844</v>
+      </c>
+      <c r="F3617">
+        <v>5486500</v>
+      </c>
+      <c r="G3617">
+        <v>0</v>
+      </c>
+      <c r="H3617">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3618" spans="1:8">
+      <c r="A3618" s="2">
+        <v>45797</v>
+      </c>
+      <c r="B3618">
+        <v>39.38999938964844</v>
+      </c>
+      <c r="C3618">
+        <v>40.18999862670898</v>
+      </c>
+      <c r="D3618">
+        <v>39.16999816894531</v>
+      </c>
+      <c r="E3618">
+        <v>39.7599983215332</v>
+      </c>
+      <c r="F3618">
+        <v>5082800</v>
+      </c>
+      <c r="G3618">
+        <v>0</v>
+      </c>
+      <c r="H3618">
         <v>0</v>
       </c>
     </row>
@@ -95033,31 +95085,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3615</v>
+        <v>3617</v>
       </c>
       <c r="C2">
-        <v>13.95942621800979</v>
+        <v>13.97353214728562</v>
       </c>
       <c r="D2">
-        <v>4.93207838049296</v>
+        <v>4.942061891937289</v>
       </c>
       <c r="E2">
         <v>3.913713932037354</v>
       </c>
       <c r="F2">
-        <v>15.8615246295226</v>
+        <v>15.86847709459808</v>
       </c>
       <c r="G2">
         <v>0.1387770934371319</v>
       </c>
       <c r="H2">
-        <v>1.068284192833814</v>
+        <v>1.068284211116971</v>
       </c>
       <c r="I2">
-        <v>26.16797026779444</v>
+        <v>26.18793762868029</v>
       </c>
       <c r="J2">
-        <v>25.09968607496062</v>
+        <v>25.11965341756332</v>
       </c>
       <c r="K2">
         <v>51.61000061035156</v>
@@ -95068,31 +95120,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3615</v>
+        <v>3617</v>
       </c>
       <c r="C3">
-        <v>14.22627106110549</v>
+        <v>14.2404755001141</v>
       </c>
       <c r="D3">
-        <v>5.071853492308202</v>
+        <v>5.071853618744171</v>
       </c>
       <c r="E3">
         <v>3.913713932037354</v>
       </c>
       <c r="F3">
-        <v>16.09556617998959</v>
+        <v>16.10244689890756</v>
       </c>
       <c r="G3">
         <v>0.1497594692792021</v>
       </c>
       <c r="H3">
-        <v>1.092744845318973</v>
+        <v>1.093244051368877</v>
       </c>
       <c r="I3">
-        <v>26.64220819872423</v>
+        <v>26.68713468268424</v>
       </c>
       <c r="J3">
-        <v>25.54946335340526</v>
+        <v>25.59389063131536</v>
       </c>
       <c r="K3">
         <v>52.13000106811523</v>
@@ -95103,31 +95155,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3615</v>
+        <v>3617</v>
       </c>
       <c r="C4">
-        <v>13.67900746904685</v>
+        <v>13.69304174717618</v>
       </c>
       <c r="D4">
-        <v>4.732398810502721</v>
+        <v>4.742382651324573</v>
       </c>
       <c r="E4">
         <v>0.9384925986440218</v>
       </c>
       <c r="F4">
-        <v>15.61084053623189</v>
+        <v>15.61792769310439</v>
       </c>
       <c r="G4">
         <v>0.136780300977272</v>
       </c>
       <c r="H4">
-        <v>1.030045569901072</v>
+        <v>1.031742870445964</v>
       </c>
       <c r="I4">
-        <v>25.18954086838851</v>
+        <v>25.20950959812042</v>
       </c>
       <c r="J4">
-        <v>24.15949529848743</v>
+        <v>24.17776672767446</v>
       </c>
       <c r="K4">
         <v>50.43999862670898</v>
@@ -95138,10 +95190,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3615</v>
+        <v>3617</v>
       </c>
       <c r="C5">
-        <v>13.93762438002958</v>
+        <v>13.95180042342221</v>
       </c>
       <c r="D5">
         <v>4.912110328674316</v>
@@ -95150,19 +95202,19 @@
         <v>0.7388133406639099</v>
       </c>
       <c r="F5">
-        <v>15.84378509339723</v>
+        <v>15.85086872977354</v>
       </c>
       <c r="G5">
         <v>0.1377786993980408</v>
       </c>
       <c r="H5">
-        <v>1.0677849650383</v>
+        <v>1.068284153938293</v>
       </c>
       <c r="I5">
-        <v>26.08310604095459</v>
+        <v>26.09808158874512</v>
       </c>
       <c r="J5">
-        <v>25.01532107591629</v>
+        <v>25.02979743480682</v>
       </c>
       <c r="K5">
         <v>50.86000061035156</v>
@@ -95173,19 +95225,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3615</v>
+        <v>3617</v>
       </c>
       <c r="C6">
-        <v>8262902.923928077</v>
+        <v>8261256.115565386</v>
       </c>
       <c r="D6">
-        <v>4999800</v>
+        <v>5018000</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>9546968.219120359</v>
+        <v>9544585.697134435</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -95194,10 +95246,10 @@
         <v>1870000</v>
       </c>
       <c r="I6">
-        <v>11271550</v>
+        <v>11262600</v>
       </c>
       <c r="J6">
-        <v>9401550</v>
+        <v>9392600</v>
       </c>
       <c r="K6">
         <v>161938000</v>
@@ -95208,10 +95260,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3615</v>
+        <v>3617</v>
       </c>
       <c r="C7">
-        <v>2.009515905947441E-05</v>
+        <v>2.00840475532209E-05</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -95220,7 +95272,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.001208218827330736</v>
+        <v>0.001207884742206879</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -95243,10 +95295,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3615</v>
+        <v>3617</v>
       </c>
       <c r="C8">
-        <v>0.01806362378976487</v>
+        <v>0.01805363560962123</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -95255,7 +95307,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8520736198331283</v>
+        <v>0.8518380532854122</v>
       </c>
       <c r="G8">
         <v>0</v>
